--- a/rider/weekly/2017_15.xlsx
+++ b/rider/weekly/2017_15.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>182</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>261</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>303</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>221.05</c:v>
+                  <c:v>225.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210.92</c:v>
+                  <c:v>210.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219.04</c:v>
+                  <c:v>212.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>236.43</c:v>
+                  <c:v>241.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239.38</c:v>
+                  <c:v>242.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113.96</c:v>
+                  <c:v>114.28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.09</c:v>
+                  <c:v>92.73999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D2">
-        <v>221.05</v>
+        <v>225.59</v>
       </c>
       <c r="E2">
         <v>114.33</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D3">
-        <v>210.92</v>
+        <v>210.29</v>
       </c>
       <c r="E3">
         <v>114.49</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="D4">
-        <v>219.04</v>
+        <v>212.96</v>
       </c>
       <c r="E4">
         <v>114.65</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D5">
-        <v>236.43</v>
+        <v>241.22</v>
       </c>
       <c r="E5">
         <v>114.82</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="D6">
-        <v>239.38</v>
+        <v>242.92</v>
       </c>
       <c r="E6">
         <v>114.98</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>113.96</v>
+        <v>114.28</v>
       </c>
       <c r="E7">
         <v>115.14</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>93.09</v>
+        <v>92.73999999999999</v>
       </c>
       <c r="E8">
         <v>115.3</v>
